--- a/ClientClasses/for_patterns_generating/pats.xlsx
+++ b/ClientClasses/for_patterns_generating/pats.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,42 +425,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[[1041, 20, 20, 34, 10, 10, 41, 10], [31, 20, 10, 31, 10, 20, 10, 10], [20, 10, 10, 33, 71, 20, 10, 10], [20, 10, 10, 10, 10, 33, 10, 20], [33, 10, 10, 20, 10, 10, 10, 10], [41, 10, 32, 20, 20, 20, 34, 20], [10, 10, 10, 20, 20, 34, 10, 20], [63, 63, 63, 10, 20, 20, 20, 34]]</t>
+          <t>[[10, 1041, 20, 20, 34, 20, 20, 34], [10, 31, 32, 20, 20, 20, 34, 41], [10, 33, 10, 20, 20, 20, 34, 10], [10, 10, 10, 10, 10, 10, 71, 10], [20, 10, 10, 20, 20, 10, 10, 10], [20, 41, 10, 32, 20, 20, 34, 10], [33, 10, 10, 10, 10, 20, 20, 10], [10, 20, 63, 63, 63, 10, 10, 10]]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[[10, 10, 20, 20, 20, 34, 10, 10], [10, 32, 20, 20, 34, 20, 20, 34], [31, 10, 10, 10, 20, 71, 10, 42], [20, 10, 20, 10, 10, 10, 10, 62], [20, 20, 20, 20, 10, 31, 10, 62], [20, 10, 20, 20, 10, 33, 10, 62], [33, 10, 33, 10, 10, 10, 10, 10], [10, 1041, 20, 20, 34, 10, 41, 10]]</t>
+          <t>[[10, 20, 20, 34, 10, 10, 10, 20], [31, 10, 41, 10, 20, 10, 20, 20], [20, 10, 10, 10, 10, 10, 20, 20], [20, 10, 31, 20, 10, 31, 33, 33], [20, 10, 20, 10, 71, 33, 10, 62], [33, 20, 20, 10, 10, 10, 10, 62], [10, 10, 33, 20, 20, 10, 10, 62], [10, 1041, 20, 20, 34, 10, 10, 42]]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[[10, 10, 1041, 20, 20, 34, 10, 10], [10, 10, 10, 31, 10, 10, 10, 41], [10, 20, 31, 33, 10, 10, 10, 10], [20, 10, 20, 10, 20, 20, 20, 10], [20, 20, 20, 10, 20, 71, 10, 10], [20, 20, 20, 10, 33, 10, 10, 62], [20, 33, 33, 10, 20, 10, 10, 62], [33, 32, 20, 20, 34, 42, 10, 62]]</t>
+          <t>[[1041, 20, 20, 34, 10, 42, 10, 10], [10, 10, 10, 20, 10, 20, 20, 10], [20, 31, 10, 20, 10, 10, 31, 31], [20, 33, 20, 33, 10, 10, 20, 20], [33, 10, 20, 10, 10, 10, 20, 20], [64, 10, 20, 10, 20, 10, 33, 20], [64, 10, 33, 10, 10, 20, 20, 33], [64, 10, 10, 10, 71, 10, 42, 10]]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[[31, 32, 20, 20, 34, 10, 42, 10], [33, 42, 10, 10, 10, 10, 10, 62], [10, 10, 20, 10, 10, 20, 10, 62], [10, 20, 20, 34, 10, 10, 10, 62], [20, 20, 20, 20, 34, 10, 10, 10], [10, 10, 10, 10, 10, 20, 20, 71], [10, 10, 32, 20, 20, 20, 34, 10], [10, 1041, 20, 20, 34, 20, 20, 34]]</t>
+          <t>[[20, 10, 20, 20, 20, 34, 10, 10], [20, 20, 20, 20, 20, 34, 10, 41], [10, 20, 41, 10, 31, 10, 10, 62], [20, 33, 10, 10, 33, 10, 10, 62], [10, 20, 10, 10, 10, 10, 10, 62], [32, 20, 20, 20, 34, 20, 71, 10], [10, 10, 10, 10, 20, 20, 34, 10], [10, 10, 10, 32, 20, 1041, 34, 10]]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[[64, 10, 10, 32, 20, 1041, 20, 34], [64, 10, 10, 10, 20, 20, 10, 10], [64, 10, 20, 10, 20, 20, 20, 34], [10, 10, 20, 20, 20, 20, 34, 10], [42, 10, 20, 20, 10, 20, 10, 10], [10, 10, 33, 33, 20, 10, 71, 10], [20, 32, 34, 10, 10, 42, 10, 10], [32, 20, 20, 34, 10, 10, 10, 10]]</t>
+          <t>[[10, 42, 10, 10, 10, 71, 10, 42], [31, 10, 10, 10, 20, 20, 20, 34], [33, 10, 20, 20, 34, 10, 10, 10], [64, 10, 10, 32, 20, 20, 20, 34], [64, 10, 10, 10, 20, 20, 20, 34], [64, 10, 10, 10, 20, 10, 10, 20], [32, 20, 20, 34, 20, 20, 34, 10], [10, 10, 10, 10, 10, 20, 20, 1041]]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[[10, 10, 20, 20, 20, 34, 10, 42], [10, 10, 10, 10, 10, 10, 10, 62], [20, 32, 1041, 20, 34, 10, 10, 62], [32, 34, 20, 20, 20, 34, 10, 62], [20, 10, 32, 20, 20, 20, 34, 10], [20, 10, 20, 10, 10, 71, 20, 10], [33, 10, 10, 10, 20, 20, 10, 10], [10, 41, 10, 10, 20, 20, 34, 10]]</t>
+          <t>[[20, 10, 10, 71, 10, 31, 10, 62], [1041, 20, 20, 34, 10, 33, 10, 62], [20, 10, 20, 10, 10, 10, 10, 62], [33, 32, 20, 20, 20, 34, 10, 42], [20, 10, 32, 20, 20, 34, 10, 20], [20, 10, 20, 10, 10, 10, 10, 20], [10, 10, 20, 20, 20, 34, 10, 33], [10, 10, 42, 10, 10, 10, 20, 10]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[[10, 10, 10, 1041, 20, 20, 34, 20], [10, 10, 10, 10, 10, 20, 10, 20], [20, 31, 32, 20, 20, 20, 34, 10], [20, 33, 10, 20, 20, 34, 10, 10], [33, 10, 32, 20, 20, 34, 10, 10], [10, 10, 10, 10, 20, 10, 10, 41], [10, 10, 20, 71, 10, 10, 10, 10], [41, 20, 20, 20, 34, 63, 63, 63]]</t>
         </is>
       </c>
     </row>
